--- a/data/trans_camb/P62-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P62-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P62-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P62-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,25</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-23,65; 1,95</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-37,59; -13,89</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 15,87</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; 5,72</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 6,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,05; -4,98</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-22,97%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-52,92%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-9,48%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,15%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-42,61; 4,59</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-68,71; -31,77</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-17,39; 85,66</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-37,97; 30,53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,35; 21,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,19; -15,99</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,24; -5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,96; -0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,63; 7,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,46; 6,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,17; 7,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,85; 20,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,32; 1,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 3,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,81; 14,55</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,71%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,0; -9,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,97; -1,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,96; 15,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,68; 36,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,28; 37,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,65; 109,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,01; 4,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,63; 11,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,62; 46,6</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,65; 3,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,18; 6,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,43; 14,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 10,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 12,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 16,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,62; 5,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 8,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,85; 14,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,18%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,61; 8,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,99; 13,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,63; 31,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,97; 41,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,82; 52,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,92; 70,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,08; 16,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,6; 26,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,57; 45,47</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,57; 2,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,04; -3,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; 16,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 16,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,63; 7,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 16,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 9,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,58; 1,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 15,08</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,7%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,66; 6,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,03; -7,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,63; 36,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,56; 68,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,82; 30,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,52; 72,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 29,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,64; 5,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,14; 45,94</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,53</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,33; 0,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,46; 11,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,43; 10,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 17,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 23,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,68; 28,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; 9,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 17,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,98; 18,56</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,99%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,62%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,48; 1,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,76; 27,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,33; 23,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,67; 105,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,67; 136,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,35; 170,84</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,55; 33,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 60,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,31; 66,31</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,27</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,28; 5,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,99; 4,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; 16,52</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 10,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,64; 7,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,36; 18,74</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 7,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,95; 5,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,65; 17,86</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,55%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,52%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,62%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,32%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,66%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,67; 10,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,73; 9,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,72; 34,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,48; 57,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,17; 40,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,21; 99,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,05; 22,92</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,51; 18,27</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 57,04</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,41</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,81</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,46</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,65; -1,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 9,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 15,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 9,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,82; 19,07</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,71; 56,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,32; 5,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,45; 14,03</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,66; 41,14</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,33%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,3%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,26%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,73; -3,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,08; 19,23</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; 34,35</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,27; 42,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,82; 82,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,69; 241,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,03; 15,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,59; 42,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,82; 120,26</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,16</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,55</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,54</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,86</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,89; -6,19</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,98; -6,14</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 13,96</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 9,92</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 13,22</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,61; 20,99</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 4,21</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 6,91</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,17; 18,25</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,02%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,54%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,61%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,11%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,3; -11,0</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,22; -10,71</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 24,38</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 48,02</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,87; 64,56</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,28; 99,31</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,53; 12,86</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 20,34</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,51; 53,24</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,39</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,98; -7,08</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,52; -4,76</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 5,86</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 6,94</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,85; 8,19</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,0; 25,65</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 2,12</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 3,74</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,78; 16,34</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,32%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,04%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,17%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,99%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,68; -13,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,6; -9,21</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 11,04</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,35; 29,67</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,08; 35,38</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,42; 105,59</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 6,18</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 10,69</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,33; 45,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P62-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P62-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-25,96</t>
+          <t>-28,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>-13,58</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,32; 8,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,59; -13,89</t>
+          <t>-40,0; -16,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 21,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 5,72</t>
+          <t>-12,48; 5,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 14,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,05; -4,98</t>
+          <t>-20,72; -6,34</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-52,92%</t>
+          <t>-57,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>-12,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-35,15%</t>
+          <t>-38,97%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,95; 21,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,71; -31,77</t>
+          <t>-72,67; -37,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,09; 107,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 30,53</t>
+          <t>-41,4; 26,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 46,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,19; -15,99</t>
+          <t>-53,04; -19,78</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,38</t>
+          <t>14,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>7,67</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 7,24</t>
+          <t>-15,75; 4,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 20,51</t>
+          <t>7,57; 20,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 14,55</t>
+          <t>1,35; 13,33</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>-9,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,23%</t>
+          <t>64,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>22,28%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 15,01</t>
+          <t>-25,98; 9,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,65; 109,4</t>
+          <t>28,47; 107,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 46,6</t>
+          <t>3,94; 42,93</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>7,57</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 14,57</t>
+          <t>-9,01; 13,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 16,99</t>
+          <t>1,94; 16,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 14,68</t>
+          <t>1,17; 13,9</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>20,43%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 31,16</t>
+          <t>-15,29; 28,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,92; 70,36</t>
+          <t>5,0; 69,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 45,47</t>
+          <t>2,91; 43,54</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>-7,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,75</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>8,03</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 2,76</t>
+          <t>-18,05; 3,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 16,51</t>
+          <t>-10,94; 15,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 16,03</t>
+          <t>0,34; 17,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 16,99</t>
+          <t>1,6; 17,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 9,93</t>
+          <t>-2,51; 10,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 15,08</t>
+          <t>0,76; 14,91</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>-14,09%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>36,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>22,01%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 6,6</t>
+          <t>-31,29; 8,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 36,22</t>
+          <t>-18,68; 33,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,56; 68,09</t>
+          <t>1,0; 73,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 72,82</t>
+          <t>5,4; 74,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 29,86</t>
+          <t>-6,43; 32,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,14; 45,94</t>
+          <t>2,73; 45,6</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,53</t>
+          <t>19,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10,73</t>
+          <t>11,41</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 10,29</t>
+          <t>-18,65; 10,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,68; 28,33</t>
+          <t>10,66; 29,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,98; 18,56</t>
+          <t>2,91; 19,26</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-7,91%</t>
+          <t>-6,78%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>34,71%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 23,96</t>
+          <t>-31,05; 25,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>33,35; 170,84</t>
+          <t>36,46; 175,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,31; 66,31</t>
+          <t>7,03; 67,48</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10,27</t>
+          <t>9,99</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 16,52</t>
+          <t>-7,97; 15,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,36; 18,74</t>
+          <t>2,34; 18,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,65; 17,86</t>
+          <t>3,37; 17,64</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>27,89%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 34,41</t>
+          <t>-13,03; 32,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,21; 99,79</t>
+          <t>7,97; 99,05</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>9,36; 57,04</t>
+          <t>8,74; 56,48</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,81</t>
+          <t>38,7</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>21,46</t>
+          <t>25,7</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 15,82</t>
+          <t>-5,9; 13,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,71; 56,42</t>
+          <t>15,27; 64,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,66; 41,14</t>
+          <t>11,74; 48,8</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>118,3%</t>
+          <t>148,57%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>72,14%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 34,35</t>
+          <t>-10,65; 29,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>56,69; 241,72</t>
+          <t>54,78; 276,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>34,82; 120,26</t>
+          <t>31,83; 144,38</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>15,54</t>
+          <t>16,12</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>14,69</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 13,96</t>
+          <t>-2,34; 14,6</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>9,61; 20,99</t>
+          <t>10,12; 21,14</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>9,17; 18,25</t>
+          <t>10,04; 19,02</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>65,61%</t>
+          <t>68,03%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>40,39%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 24,38</t>
+          <t>-3,44; 25,56</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>35,28; 99,31</t>
+          <t>37,5; 101,97</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>23,51; 53,24</t>
+          <t>25,89; 56,02</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>18,66</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>12,07</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,86</t>
+          <t>-4,53; 3,81</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>12,0; 25,65</t>
+          <t>11,8; 34,12</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>8,78; 16,34</t>
+          <t>8,17; 22,7</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>75,72%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>33,88%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 11,04</t>
+          <t>-7,99; 7,26</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>47,42; 105,59</t>
+          <t>47,1; 140,93</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>24,33; 45,98</t>
+          <t>22,57; 62,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P62-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P62-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 8,98</t>
+          <t>-14,93; 8,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 1,95</t>
+          <t>-23,14; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,0; -16,22</t>
+          <t>-40,1; -16,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 21,79</t>
+          <t>1,53; 22,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 15,87</t>
+          <t>-4,96; 14,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 5,27</t>
+          <t>-12,09; 5,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 14,17</t>
+          <t>-2,76; 13,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 6,69</t>
+          <t>-8,82; 6,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,72; -6,34</t>
+          <t>-21,58; -6,44</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 21,82</t>
+          <t>-27,6; 20,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 4,59</t>
+          <t>-42,0; 1,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,67; -37,55</t>
+          <t>-72,29; -36,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 107,89</t>
+          <t>4,37; 117,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 85,66</t>
+          <t>-16,67; 75,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 26,39</t>
+          <t>-39,19; 27,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 46,61</t>
+          <t>-7,05; 45,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 21,57</t>
+          <t>-22,49; 21,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,04; -19,78</t>
+          <t>-53,52; -19,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,24; -5,45</t>
+          <t>-23,83; -6,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -0,88</t>
+          <t>-19,07; -0,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 4,75</t>
+          <t>-15,61; 5,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 6,85</t>
+          <t>-5,39; 7,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 7,1</t>
+          <t>-4,78; 7,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 20,23</t>
+          <t>7,36; 20,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 1,34</t>
+          <t>-9,04; 1,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 3,63</t>
+          <t>-6,89; 3,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 13,33</t>
+          <t>2,0; 13,61</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,0; -9,74</t>
+          <t>-39,99; -13,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,97; -1,67</t>
+          <t>-31,85; -1,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 9,14</t>
+          <t>-27,19; 9,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 36,36</t>
+          <t>-22,47; 42,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 37,48</t>
+          <t>-20,37; 41,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,47; 107,45</t>
+          <t>28,65; 106,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 4,21</t>
+          <t>-24,48; 5,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 11,9</t>
+          <t>-18,39; 11,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 42,93</t>
+          <t>5,79; 43,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 3,48</t>
+          <t>-17,82; 4,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 6,11</t>
+          <t>-15,66; 5,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 13,65</t>
+          <t>-9,73; 14,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 10,05</t>
+          <t>-5,97; 9,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 12,93</t>
+          <t>-3,24; 13,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 16,58</t>
+          <t>1,02; 16,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 5,58</t>
+          <t>-7,31; 5,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 8,74</t>
+          <t>-4,33; 8,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 13,9</t>
+          <t>1,1; 14,37</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 8,5</t>
+          <t>-31,89; 8,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 13,4</t>
+          <t>-26,86; 11,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 28,89</t>
+          <t>-15,99; 30,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 41,67</t>
+          <t>-20,11; 42,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 52,79</t>
+          <t>-10,61; 58,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,0; 69,43</t>
+          <t>3,21; 70,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 16,69</t>
+          <t>-18,11; 17,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 26,56</t>
+          <t>-10,31; 25,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,91; 43,54</t>
+          <t>2,64; 43,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 3,88</t>
+          <t>-18,78; 2,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,04; -3,26</t>
+          <t>-23,77; -3,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 15,61</t>
+          <t>-11,34; 15,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 17,16</t>
+          <t>0,61; 16,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 7,61</t>
+          <t>-7,53; 7,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 17,37</t>
+          <t>2,53; 17,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 10,62</t>
+          <t>-2,65; 10,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 1,89</t>
+          <t>-10,93; 2,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 14,91</t>
+          <t>0,36; 14,3</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 8,4</t>
+          <t>-33,5; 5,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,03; -7,04</t>
+          <t>-40,89; -7,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 33,31</t>
+          <t>-19,81; 34,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 73,37</t>
+          <t>1,62; 67,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 30,34</t>
+          <t>-24,69; 31,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,4; 74,77</t>
+          <t>8,73; 73,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 32,13</t>
+          <t>-6,76; 30,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 5,96</t>
+          <t>-26,71; 6,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,73; 45,6</t>
+          <t>1,33; 43,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 0,5</t>
+          <t>-26,87; 0,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 11,72</t>
+          <t>-15,02; 12,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 10,73</t>
+          <t>-17,89; 11,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 17,09</t>
+          <t>-3,35; 16,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,78; 23,79</t>
+          <t>2,56; 23,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,66; 29,1</t>
+          <t>9,76; 28,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 9,19</t>
+          <t>-8,6; 7,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 17,25</t>
+          <t>1,53; 18,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,91; 19,26</t>
+          <t>2,97; 19,22</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-45,48; 1,3</t>
+          <t>-45,45; 0,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 27,13</t>
+          <t>-24,7; 31,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 25,1</t>
+          <t>-30,58; 26,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 105,39</t>
+          <t>-12,74; 93,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,67; 136,3</t>
+          <t>8,7; 139,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>36,46; 175,08</t>
+          <t>34,39; 168,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 33,1</t>
+          <t>-22,79; 27,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,61; 60,2</t>
+          <t>3,89; 63,7</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>7,03; 67,48</t>
+          <t>8,41; 68,92</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 5,21</t>
+          <t>-18,75; 5,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 4,96</t>
+          <t>-20,92; 2,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 15,54</t>
+          <t>-8,52; 15,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 10,91</t>
+          <t>-6,41; 10,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 7,94</t>
+          <t>-10,75; 7,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,34; 18,71</t>
+          <t>2,48; 18,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 7,12</t>
+          <t>-7,37; 6,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 5,66</t>
+          <t>-9,82; 4,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,37; 17,64</t>
+          <t>3,33; 16,88</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 10,69</t>
+          <t>-30,6; 10,46</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 9,82</t>
+          <t>-34,44; 4,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 32,15</t>
+          <t>-13,9; 32,54</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 57,88</t>
+          <t>-20,67; 55,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 40,58</t>
+          <t>-37,61; 39,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>7,97; 99,05</t>
+          <t>8,39; 93,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 22,92</t>
+          <t>-18,62; 21,81</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 18,27</t>
+          <t>-25,2; 15,46</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>8,74; 56,48</t>
+          <t>8,34; 52,7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-17,65; -1,55</t>
+          <t>-17,12; -1,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 9,0</t>
+          <t>-8,18; 9,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 13,64</t>
+          <t>-6,01; 12,98</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 9,63</t>
+          <t>-2,44; 9,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,82; 19,07</t>
+          <t>5,18; 18,71</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,27; 64,42</t>
+          <t>14,97; 62,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 5,18</t>
+          <t>-5,26; 4,22</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,45; 14,03</t>
+          <t>3,83; 13,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11,74; 48,8</t>
+          <t>11,38; 48,18</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-31,73; -3,0</t>
+          <t>-31,36; -3,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 19,23</t>
+          <t>-14,3; 19,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 29,42</t>
+          <t>-10,51; 28,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 42,43</t>
+          <t>-8,18; 39,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>19,82; 82,59</t>
+          <t>17,57; 79,18</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>54,78; 276,71</t>
+          <t>55,09; 270,67</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 15,37</t>
+          <t>-13,73; 12,79</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,59; 42,02</t>
+          <t>9,78; 41,1</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>31,83; 144,38</t>
+          <t>31,43; 143,37</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-21,89; -6,19</t>
+          <t>-21,47; -6,05</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-20,98; -6,14</t>
+          <t>-21,6; -6,44</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 14,6</t>
+          <t>-1,96; 14,72</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 9,92</t>
+          <t>-1,68; 8,85</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>2,06; 13,22</t>
+          <t>1,7; 13,05</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>10,12; 21,14</t>
+          <t>10,54; 21,51</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 4,21</t>
+          <t>-5,0; 4,03</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 6,91</t>
+          <t>-2,15; 7,22</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,02</t>
+          <t>9,94; 19,07</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-33,3; -11,0</t>
+          <t>-32,51; -10,42</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-32,22; -10,71</t>
+          <t>-32,59; -11,06</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 25,56</t>
+          <t>-2,92; 26,03</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 48,02</t>
+          <t>-6,7; 41,58</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,87; 64,56</t>
+          <t>6,16; 62,93</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>37,5; 101,97</t>
+          <t>37,6; 105,01</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 12,86</t>
+          <t>-12,81; 11,91</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 20,34</t>
+          <t>-5,54; 21,07</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>25,89; 56,02</t>
+          <t>25,05; 56,0</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -7,08</t>
+          <t>-14,1; -6,94</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-11,52; -4,76</t>
+          <t>-11,59; -4,86</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,81</t>
+          <t>-4,57; 3,51</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,94</t>
+          <t>1,83; 6,89</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,19</t>
+          <t>2,81; 8,16</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>11,8; 34,12</t>
+          <t>11,97; 36,22</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,12</t>
+          <t>-2,08; 2,3</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,74</t>
+          <t>-0,31; 4,1</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>8,17; 22,7</t>
+          <t>8,14; 23,3</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-24,68; -13,44</t>
+          <t>-25,03; -13,3</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-20,6; -9,21</t>
+          <t>-20,64; -9,42</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 7,26</t>
+          <t>-8,0; 6,66</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>6,35; 29,67</t>
+          <t>7,01; 29,37</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>11,08; 35,38</t>
+          <t>10,56; 34,94</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>47,1; 140,93</t>
+          <t>47,7; 142,68</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 6,18</t>
+          <t>-5,61; 6,69</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 10,69</t>
+          <t>-0,83; 11,75</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>22,57; 62,88</t>
+          <t>22,51; 65,35</t>
         </is>
       </c>
     </row>
